--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Kremen2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H2">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4307696666666667</v>
+        <v>0.3987243333333333</v>
       </c>
       <c r="N2">
-        <v>1.292309</v>
+        <v>1.196173</v>
       </c>
       <c r="O2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="P2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="Q2">
-        <v>0.058175874253</v>
+        <v>0.1167514024001111</v>
       </c>
       <c r="R2">
-        <v>0.5235828682770001</v>
+        <v>1.050762621601</v>
       </c>
       <c r="S2">
-        <v>0.02045771540906033</v>
+        <v>0.03221361510354304</v>
       </c>
       <c r="T2">
-        <v>0.02045771540906033</v>
+        <v>0.03221361510354304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H3">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2214776666666667</v>
+        <v>0.321599</v>
       </c>
       <c r="N3">
-        <v>0.6644330000000001</v>
+        <v>0.964797</v>
       </c>
       <c r="O3">
-        <v>0.3395608618816379</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="P3">
-        <v>0.339560861881638</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="Q3">
-        <v>0.029910780361</v>
+        <v>0.09416815358766666</v>
       </c>
       <c r="R3">
-        <v>0.269197023249</v>
+        <v>0.847513382289</v>
       </c>
       <c r="S3">
-        <v>0.01051821292151349</v>
+        <v>0.02598252862341235</v>
       </c>
       <c r="T3">
-        <v>0.01051821292151349</v>
+        <v>0.02598252862341235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2928123333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.8784369999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.06406943071632207</v>
+      </c>
+      <c r="J4">
+        <v>0.06406943071632207</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>3.944536333333333</v>
-      </c>
-      <c r="H4">
-        <v>11.833609</v>
-      </c>
-      <c r="I4">
-        <v>0.9047372826463912</v>
-      </c>
-      <c r="J4">
-        <v>0.9047372826463912</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4307696666666667</v>
+        <v>0.07269666666666667</v>
       </c>
       <c r="N4">
-        <v>1.292309</v>
+        <v>0.21809</v>
       </c>
       <c r="O4">
-        <v>0.660439138118362</v>
+        <v>0.09167065984044119</v>
       </c>
       <c r="P4">
-        <v>0.660439138118362</v>
+        <v>0.09167065984044119</v>
       </c>
       <c r="Q4">
-        <v>1.699186601464556</v>
+        <v>0.02128648059222222</v>
       </c>
       <c r="R4">
-        <v>15.292679413181</v>
+        <v>0.19157832533</v>
       </c>
       <c r="S4">
-        <v>0.5975239111745314</v>
+        <v>0.005873286989366675</v>
       </c>
       <c r="T4">
-        <v>0.5975239111745314</v>
+        <v>0.005873286989366675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +729,10 @@
         <v>11.833609</v>
       </c>
       <c r="I5">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J5">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +741,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2214776666666667</v>
+        <v>0.3987243333333333</v>
       </c>
       <c r="N5">
-        <v>0.6644330000000001</v>
+        <v>1.196173</v>
       </c>
       <c r="O5">
-        <v>0.3395608618816379</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="P5">
-        <v>0.339560861881638</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="Q5">
-        <v>0.8736267031885556</v>
+        <v>1.572782619817444</v>
       </c>
       <c r="R5">
-        <v>7.862640328697</v>
+        <v>14.155043578357</v>
       </c>
       <c r="S5">
-        <v>0.3072133714718597</v>
+        <v>0.4339563629626518</v>
       </c>
       <c r="T5">
-        <v>0.3072133714718597</v>
+        <v>0.4339563629626518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.280282</v>
+        <v>3.944536333333333</v>
       </c>
       <c r="H6">
-        <v>0.840846</v>
+        <v>11.833609</v>
       </c>
       <c r="I6">
-        <v>0.06428678902303493</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J6">
-        <v>0.06428678902303493</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +803,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4307696666666667</v>
+        <v>0.321599</v>
       </c>
       <c r="N6">
-        <v>1.292309</v>
+        <v>0.964797</v>
       </c>
       <c r="O6">
-        <v>0.660439138118362</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="P6">
-        <v>0.660439138118362</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="Q6">
-        <v>0.1207369837126667</v>
+        <v>1.268558940263667</v>
       </c>
       <c r="R6">
-        <v>1.086632853414</v>
+        <v>11.417030462373</v>
       </c>
       <c r="S6">
-        <v>0.04245751153477016</v>
+        <v>0.3500160905799392</v>
       </c>
       <c r="T6">
-        <v>0.04245751153477016</v>
+        <v>0.3500160905799392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.944536333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.833609</v>
+      </c>
+      <c r="I7">
+        <v>0.8630927339690215</v>
+      </c>
+      <c r="J7">
+        <v>0.8630927339690215</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07269666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.21809</v>
+      </c>
+      <c r="O7">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="P7">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="Q7">
+        <v>0.2867546429788889</v>
+      </c>
+      <c r="R7">
+        <v>2.58079178681</v>
+      </c>
+      <c r="S7">
+        <v>0.07912028042643057</v>
+      </c>
+      <c r="T7">
+        <v>0.07912028042643057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.332886</v>
+      </c>
+      <c r="H8">
+        <v>0.998658</v>
+      </c>
+      <c r="I8">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="J8">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.280282</v>
-      </c>
-      <c r="H7">
-        <v>0.840846</v>
-      </c>
-      <c r="I7">
-        <v>0.06428678902303493</v>
-      </c>
-      <c r="J7">
-        <v>0.06428678902303493</v>
-      </c>
-      <c r="K7">
+      <c r="M8">
+        <v>0.3987243333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.196173</v>
+      </c>
+      <c r="O8">
+        <v>0.5027922793035905</v>
+      </c>
+      <c r="P8">
+        <v>0.5027922793035905</v>
+      </c>
+      <c r="Q8">
+        <v>0.132729748426</v>
+      </c>
+      <c r="R8">
+        <v>1.194567735834</v>
+      </c>
+      <c r="S8">
+        <v>0.03662230123739562</v>
+      </c>
+      <c r="T8">
+        <v>0.03662230123739562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.332886</v>
+      </c>
+      <c r="H9">
+        <v>0.998658</v>
+      </c>
+      <c r="I9">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="J9">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.2214776666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.6644330000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.3395608618816379</v>
-      </c>
-      <c r="P7">
-        <v>0.339560861881638</v>
-      </c>
-      <c r="Q7">
-        <v>0.06207620336866666</v>
-      </c>
-      <c r="R7">
-        <v>0.558685830318</v>
-      </c>
-      <c r="S7">
-        <v>0.02182927748826476</v>
-      </c>
-      <c r="T7">
-        <v>0.02182927748826477</v>
+      <c r="M9">
+        <v>0.321599</v>
+      </c>
+      <c r="N9">
+        <v>0.964797</v>
+      </c>
+      <c r="O9">
+        <v>0.4055370608559684</v>
+      </c>
+      <c r="P9">
+        <v>0.4055370608559684</v>
+      </c>
+      <c r="Q9">
+        <v>0.107055804714</v>
+      </c>
+      <c r="R9">
+        <v>0.963502242426</v>
+      </c>
+      <c r="S9">
+        <v>0.02953844165261679</v>
+      </c>
+      <c r="T9">
+        <v>0.02953844165261679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.332886</v>
+      </c>
+      <c r="H10">
+        <v>0.998658</v>
+      </c>
+      <c r="I10">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="J10">
+        <v>0.07283783531465635</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07269666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.21809</v>
+      </c>
+      <c r="O10">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="P10">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="Q10">
+        <v>0.02419970258</v>
+      </c>
+      <c r="R10">
+        <v>0.21779732322</v>
+      </c>
+      <c r="S10">
+        <v>0.006677092424643936</v>
+      </c>
+      <c r="T10">
+        <v>0.006677092424643936</v>
       </c>
     </row>
   </sheetData>
